--- a/dokumente/Zeitplan Projekt Matratzenfinder.xlsx
+++ b/dokumente/Zeitplan Projekt Matratzenfinder.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -28,22 +28,22 @@
     <t>Klassendiagramm</t>
   </si>
   <si>
-    <t>15 Minuten</t>
-  </si>
-  <si>
-    <t>20 Minuten</t>
-  </si>
-  <si>
     <t>Design-Entwurf (Mockup)</t>
   </si>
   <si>
-    <t>1 Stunde</t>
-  </si>
-  <si>
     <t>Datenbankmodell</t>
   </si>
   <si>
-    <t>40 Minuten</t>
+    <t>Aufsetzen der Datenbank</t>
+  </si>
+  <si>
+    <t>Gesamtzeit in Minuten</t>
+  </si>
+  <si>
+    <t>Zeit in Stunden</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -385,15 +385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C5"/>
+  <dimension ref="B1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -409,32 +409,66 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C2:C12)</f>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="C15">
+        <f>(C14/60)</f>
+        <v>14.25</v>
       </c>
     </row>
   </sheetData>

--- a/dokumente/Zeitplan Projekt Matratzenfinder.xlsx
+++ b/dokumente/Zeitplan Projekt Matratzenfinder.xlsx
@@ -388,7 +388,7 @@
   <dimension ref="B1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
       </c>
       <c r="C14">
         <f>SUM(C2:C12)</f>
-        <v>855</v>
+        <v>915</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
       </c>
       <c r="C15">
         <f>(C14/60)</f>
-        <v>14.25</v>
+        <v>15.25</v>
       </c>
     </row>
   </sheetData>
